--- a/Project2/Book1.xlsx
+++ b/Project2/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラム２\MajicCarber\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\Majic\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>プロトタイプで作ったやつを使いまわす</t>
     <rPh sb="7" eb="8">
@@ -249,6 +249,20 @@
   </si>
   <si>
     <t>APシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクルで表現する</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダーの使ってみる</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -317,23 +331,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1001,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1037,6 +1035,9 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1111,6 +1112,11 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1125,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="済">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="済">
       <formula>NOT(ISERROR(SEARCH("済",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
